--- a/src/test/java/selenium/CSSINSelenium.xlsx
+++ b/src/test/java/selenium/CSSINSelenium.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bsingh5/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bsingh5/Desktop/seleniumObject/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4660" yWindow="460" windowWidth="18540" windowHeight="15120" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
   <si>
     <t>Attribute</t>
   </si>
@@ -200,6 +200,21 @@
   <si>
     <t>input[name='firstname']
 input[class^="inputtext"][name="firstname"]</t>
+  </si>
+  <si>
+    <t>Mr</t>
+  </si>
+  <si>
+    <t>//input[@id='id_gender1']</t>
+  </si>
+  <si>
+    <t>X Path</t>
+  </si>
+  <si>
+    <t>CSS</t>
+  </si>
+  <si>
+    <t>#id_gender1</t>
   </si>
 </sst>
 </file>
@@ -567,16 +582,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D5:E33"/>
+  <dimension ref="D5:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="35" customWidth="1"/>
     <col min="5" max="5" width="90.5" style="7" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="4:5" x14ac:dyDescent="0.25">
@@ -736,7 +752,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="4:5" ht="42" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D27" s="3" t="s">
         <v>29</v>
       </c>
@@ -784,12 +800,31 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D33" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E37" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F37" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F38" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
